--- a/output2/【河洛話注音】金剛般若波羅蜜經012。尊重正教分第十二.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經012。尊重正教分第十二.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D054361-54F0-4516-B8E7-D430537146F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F84EC657-6BEA-4271-86D3-8347C7E4C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -1314,10 +1314,6 @@
     <t>ㄙㄧㆲ˫</t>
   </si>
   <si>
-    <t>tsun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄨㄣ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1330,14 +1326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsiann3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ka3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1362,10 +1350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄚㆴ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1374,10 +1358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1386,10 +1366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshur3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1438,10 +1414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>king1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,22 +1430,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ku3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1482,22 +1442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ke7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tng1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1506,26 +1450,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄞ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshir3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1534,14 +1466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshiat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1566,14 +1490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1586,10 +1502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lo5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1630,14 +1542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thah4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1670,22 +1574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄣ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ling5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1698,10 +1586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ti5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1722,10 +1606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>to7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1734,10 +1614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄨㆤ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1746,10 +1622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hi1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1758,14 +1630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>huat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1798,22 +1662,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄞˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsiah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1830,11 +1682,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziann3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆩ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cir3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆩˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zur2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4136,28 +4136,28 @@
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="97" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H4" s="97" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I4" s="97" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="97" t="s">
+        <v>358</v>
+      </c>
+      <c r="K4" s="97" t="s">
         <v>272</v>
-      </c>
-      <c r="J4" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="K4" s="97" t="s">
-        <v>276</v>
       </c>
       <c r="L4" s="97"/>
       <c r="M4" s="97"/>
@@ -4211,28 +4211,28 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="99" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="G6" s="99" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H6" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="I6" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="J6" s="99" t="s">
         <v>271</v>
       </c>
-      <c r="I6" s="99" t="s">
-        <v>273</v>
-      </c>
-      <c r="J6" s="99" t="s">
-        <v>275</v>
-      </c>
       <c r="K6" s="99" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="L6" s="99"/>
       <c r="M6" s="99"/>
@@ -4269,41 +4269,41 @@
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="97" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="F8" s="97"/>
       <c r="G8" s="97"/>
       <c r="H8" s="97" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J8" s="97" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K8" s="97"/>
       <c r="L8" s="97" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M8" s="97" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N8" s="97" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O8" s="97" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="P8" s="97"/>
       <c r="Q8" s="97" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="R8" s="97" t="s">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="106"/>
@@ -4367,41 +4367,41 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="99" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E10" s="99" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I10" s="99" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J10" s="99" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K10" s="99"/>
       <c r="L10" s="99" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M10" s="99" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N10" s="99" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
       <c r="O10" s="99" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P10" s="99"/>
       <c r="Q10" s="99" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R10" s="99" t="s">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="106"/>
@@ -4431,45 +4431,45 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="97" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="H12" s="97"/>
       <c r="I12" s="97" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J12" s="97" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="K12" s="97" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="M12" s="97"/>
       <c r="N12" s="97" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="O12" s="97" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="P12" s="97" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="97" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="R12" s="97" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="106"/>
@@ -4532,45 +4532,45 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="99" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="E14" s="99" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F14" s="99" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="G14" s="99" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="H14" s="99"/>
       <c r="I14" s="99" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="J14" s="99" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="K14" s="99" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="L14" s="99" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M14" s="99"/>
       <c r="N14" s="99" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="O14" s="99" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="P14" s="99" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="99" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="R14" s="99" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="106"/>
@@ -4601,40 +4601,40 @@
       <c r="C16" s="52"/>
       <c r="D16" s="97"/>
       <c r="E16" s="97" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="F16" s="97"/>
       <c r="G16" s="97" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="H16" s="97" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="I16" s="97" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="J16" s="97"/>
       <c r="K16" s="97" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="L16" s="97" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="M16" s="97" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="N16" s="97" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="97" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="97" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="R16" s="97" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="106"/>
@@ -4698,40 +4698,40 @@
       <c r="C18" s="52"/>
       <c r="D18" s="99"/>
       <c r="E18" s="99" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="99" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="H18" s="99" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="J18" s="99"/>
       <c r="K18" s="99" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="L18" s="99" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="M18" s="99" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="N18" s="99" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="O18" s="99"/>
       <c r="P18" s="99" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="Q18" s="99" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="R18" s="99" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="106"/>
@@ -4761,37 +4761,37 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="97" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="E20" s="97"/>
       <c r="F20" s="97" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="G20" s="97" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="H20" s="97" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="I20" s="97" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="J20" s="97"/>
       <c r="K20" s="97" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="L20" s="97" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="M20" s="97" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="N20" s="97" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="O20" s="97"/>
       <c r="P20" s="97" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="97" t="s">
         <v>260</v>
@@ -4858,37 +4858,37 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="99" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="99" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="G22" s="99" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="H22" s="99" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="I22" s="99" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="J22" s="99"/>
       <c r="K22" s="99" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="L22" s="99" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="M22" s="99" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="N22" s="99" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="O22" s="99"/>
       <c r="P22" s="99" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="99" t="s">
         <v>261</v>
@@ -4922,45 +4922,45 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="97" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E24" s="97" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G24" s="97"/>
       <c r="H24" s="97" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="I24" s="97" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="J24" s="97" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K24" s="97" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="L24" s="97"/>
       <c r="M24" s="97" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="N24" s="97" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="O24" s="97" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="P24" s="97" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="97" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R24" s="97" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -5023,45 +5023,45 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="99" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E26" s="99" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F26" s="99" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G26" s="99"/>
       <c r="H26" s="99" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="I26" s="99" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="J26" s="99" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
       <c r="K26" s="99" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="L26" s="99"/>
       <c r="M26" s="99" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="N26" s="99" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="O26" s="99" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="P26" s="99" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="Q26" s="99" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="R26" s="99" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -5099,45 +5099,45 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="97" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="E28" s="97" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="F28" s="97" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="G28" s="97" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="H28" s="97"/>
       <c r="I28" s="97" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="J28" s="97" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K28" s="97" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L28" s="97" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="M28" s="97" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="N28" s="97" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="O28" s="97" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="P28" s="97" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="Q28" s="97"/>
       <c r="R28" s="97" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="82" t="str">
@@ -5208,45 +5208,45 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="99" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="E30" s="99" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="F30" s="99" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="G30" s="99" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="H30" s="99"/>
       <c r="I30" s="99" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="J30" s="99" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
       <c r="K30" s="99" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L30" s="99" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="M30" s="99" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="N30" s="99" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="O30" s="99" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="P30" s="99" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q30" s="99"/>
       <c r="R30" s="99" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="82" t="str">
@@ -5284,29 +5284,29 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="97" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="E32" s="97" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="F32" s="97" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="G32" s="97"/>
       <c r="H32" s="97" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="I32" s="97" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="J32" s="97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K32" s="97" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M32" s="97"/>
       <c r="N32" s="97"/>
@@ -5371,29 +5371,29 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="99" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="E34" s="99" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="F34" s="99" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="G34" s="99"/>
       <c r="H34" s="99" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="I34" s="99" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J34" s="99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K34" s="99" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="L34" s="99" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="M34" s="99"/>
       <c r="N34" s="99"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經012。尊重正教分第十二.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經012。尊重正教分第十二.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F84EC657-6BEA-4271-86D3-8347C7E4C4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE119053-480D-49A7-9D28-DCD215BC4051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="391">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1257,584 +1257,581 @@
     <t>塔</t>
   </si>
   <si>
+    <t>盡</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>誦</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>希</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>；</t>
+  </si>
+  <si>
+    <t>典</t>
+  </si>
+  <si>
+    <t>在</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>siong7</t>
+  </si>
+  <si>
+    <t>ㄙㄧㆲ˫</t>
+  </si>
+  <si>
+    <t>ka3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kainn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siang7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆩˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆮˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>廟</t>
-  </si>
-  <si>
-    <t>盡</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>讀</t>
-  </si>
-  <si>
-    <t>誦</t>
-  </si>
-  <si>
-    <t>成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最</t>
-  </si>
-  <si>
-    <t>上</t>
-  </si>
-  <si>
-    <t>希</t>
-  </si>
-  <si>
-    <t>之</t>
-  </si>
-  <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>；</t>
-  </si>
-  <si>
-    <t>典</t>
-  </si>
-  <si>
-    <t>在</t>
-  </si>
-  <si>
-    <t>即</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弟</t>
-  </si>
-  <si>
-    <t>siong7</t>
-  </si>
-  <si>
-    <t>ㄙㄧㆲ˫</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tang6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄤˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ka3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ku3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tng1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆭ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kainn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆮ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄧㄢ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧㄠ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ling5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄠ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siann5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siang7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tian2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziann3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆩ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cur3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ting2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cir3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄣ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆩˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zur2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄨ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1842,7 +1839,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="79">
+  <fonts count="82">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2392,6 +2389,26 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Sitka Text Semibold"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="霞鶩文楷 TC"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2592,7 +2609,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2899,6 +2916,15 @@
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -3970,7 +3996,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4070,9 +4096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -4129,35 +4153,35 @@
       <c r="R3" s="96"/>
       <c r="S3" s="73"/>
       <c r="T3" s="71"/>
-      <c r="V3" s="105" t="s">
+      <c r="V3" s="108" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="97" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>263</v>
+        <v>385</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H4" s="97" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="I4" s="97" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J4" s="97" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="K4" s="97" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="L4" s="97"/>
       <c r="M4" s="97"/>
@@ -4167,7 +4191,7 @@
       <c r="Q4" s="97"/>
       <c r="R4" s="97"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="106"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
@@ -4205,34 +4229,34 @@
       <c r="Q5" s="98"/>
       <c r="R5" s="98"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="106"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="99" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="E6" s="99" t="s">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="G6" s="99" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="H6" s="99" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="I6" s="99" t="s">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c r="K6" s="99" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="L6" s="99"/>
       <c r="M6" s="99"/>
@@ -4242,7 +4266,7 @@
       <c r="Q6" s="99"/>
       <c r="R6" s="99"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="106"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
@@ -4263,50 +4287,50 @@
       <c r="Q7" s="101"/>
       <c r="R7" s="101"/>
       <c r="S7" s="57"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="109"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="97" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="F8" s="97"/>
       <c r="G8" s="97"/>
       <c r="H8" s="97" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="J8" s="97" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="K8" s="97"/>
       <c r="L8" s="97" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="M8" s="97" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="N8" s="97" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="O8" s="97" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="P8" s="97"/>
       <c r="Q8" s="97" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="R8" s="97" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="S8" s="53"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -4361,50 +4385,50 @@
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="109"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="99" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E10" s="99" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="I10" s="99" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="J10" s="99" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="K10" s="99"/>
       <c r="L10" s="99" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="M10" s="99" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N10" s="99" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="O10" s="99" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="P10" s="99"/>
       <c r="Q10" s="99" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="R10" s="99" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="S10" s="58"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="109"/>
     </row>
     <row r="11" spans="2:22" s="79" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="77"/>
@@ -4425,54 +4449,54 @@
       <c r="Q11" s="100"/>
       <c r="R11" s="100"/>
       <c r="S11" s="57"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="97" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="H12" s="97"/>
       <c r="I12" s="97" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="J12" s="97" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="K12" s="97" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="M12" s="97"/>
       <c r="N12" s="97" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="O12" s="97" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="P12" s="97" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="Q12" s="97" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="R12" s="97" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="S12" s="53"/>
-      <c r="V12" s="106"/>
+      <c r="V12" s="109"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4526,54 +4550,54 @@
         <v>234</v>
       </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="106"/>
+      <c r="V13" s="109"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="99" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="E14" s="99" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="F14" s="99" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="G14" s="99" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="H14" s="99"/>
       <c r="I14" s="99" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="J14" s="99" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="K14" s="99" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="L14" s="99" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="M14" s="99"/>
       <c r="N14" s="99" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="O14" s="99" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="P14" s="99" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="99" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="R14" s="99" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="S14" s="58"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="109"/>
     </row>
     <row r="15" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="74"/>
@@ -4594,50 +4618,50 @@
       <c r="Q15" s="101"/>
       <c r="R15" s="101"/>
       <c r="S15" s="81"/>
-      <c r="V15" s="106"/>
+      <c r="V15" s="109"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="97"/>
       <c r="E16" s="97" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="F16" s="97"/>
       <c r="G16" s="97" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="H16" s="97" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="I16" s="97" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="J16" s="97"/>
       <c r="K16" s="97" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="L16" s="97" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="M16" s="97" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="N16" s="97" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="97" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="97" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="R16" s="97" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="S16" s="53"/>
-      <c r="V16" s="106"/>
+      <c r="V16" s="109"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="66">
@@ -4691,50 +4715,50 @@
         <v>242</v>
       </c>
       <c r="S17" s="54"/>
-      <c r="V17" s="106"/>
+      <c r="V17" s="109"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="99"/>
       <c r="E18" s="99" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="99" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="H18" s="99" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="J18" s="99"/>
       <c r="K18" s="99" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="L18" s="99" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="M18" s="99" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="N18" s="99" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="O18" s="99"/>
       <c r="P18" s="99" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="Q18" s="99" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="R18" s="99" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="S18" s="58"/>
-      <c r="V18" s="106"/>
+      <c r="V18" s="109"/>
     </row>
     <row r="19" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="74"/>
@@ -4755,50 +4779,50 @@
       <c r="Q19" s="100"/>
       <c r="R19" s="100"/>
       <c r="S19" s="81"/>
-      <c r="V19" s="106"/>
+      <c r="V19" s="109"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="97" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="E20" s="97"/>
       <c r="F20" s="97" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="G20" s="97" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="H20" s="97" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="I20" s="97" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="J20" s="97"/>
       <c r="K20" s="97" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="L20" s="97" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="M20" s="97" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="N20" s="97" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="O20" s="97"/>
       <c r="P20" s="97" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="97" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R20" s="97"/>
       <c r="S20" s="53"/>
-      <c r="V20" s="106"/>
+      <c r="V20" s="109"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="66">
@@ -4806,8 +4830,8 @@
         <v>5</v>
       </c>
       <c r="C21" s="52"/>
-      <c r="D21" s="98" t="s">
-        <v>243</v>
+      <c r="D21" s="105" t="s">
+        <v>380</v>
       </c>
       <c r="E21" s="98" t="s">
         <v>172</v>
@@ -4828,10 +4852,10 @@
         <v>167</v>
       </c>
       <c r="K21" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="98" t="s">
         <v>244</v>
-      </c>
-      <c r="L21" s="98" t="s">
-        <v>245</v>
       </c>
       <c r="M21" s="98" t="s">
         <v>216</v>
@@ -4842,60 +4866,60 @@
       <c r="O21" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="P21" s="98" t="s">
-        <v>246</v>
+      <c r="P21" s="105" t="s">
+        <v>379</v>
       </c>
       <c r="Q21" s="98" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R21" s="98" t="s">
         <v>172</v>
       </c>
       <c r="S21" s="54"/>
-      <c r="V21" s="106"/>
+      <c r="V21" s="109"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="99" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="99" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="G22" s="99" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="H22" s="99" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="I22" s="99" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="J22" s="99"/>
       <c r="K22" s="99" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="L22" s="99" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="M22" s="99" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="N22" s="99" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="O22" s="99"/>
       <c r="P22" s="99" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="99" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R22" s="99"/>
       <c r="S22" s="58"/>
-      <c r="V22" s="107"/>
+      <c r="V22" s="110"/>
     </row>
     <row r="23" spans="2:22" s="82" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="74"/>
@@ -4922,45 +4946,45 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="97" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E24" s="97" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G24" s="97"/>
       <c r="H24" s="97" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="I24" s="97" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="J24" s="97" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="K24" s="97" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="L24" s="97"/>
       <c r="M24" s="97" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="N24" s="97" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="O24" s="97" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="P24" s="97" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="97" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="R24" s="97" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4999,16 +5023,16 @@
         <v>167</v>
       </c>
       <c r="M25" s="98" t="s">
-        <v>248</v>
-      </c>
-      <c r="N25" s="98" t="s">
-        <v>249</v>
-      </c>
-      <c r="O25" s="98" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="N25" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="O25" s="105" t="s">
+        <v>382</v>
       </c>
       <c r="P25" s="98" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q25" s="98" t="s">
         <v>169</v>
@@ -5023,50 +5047,50 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="99" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="E26" s="99" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F26" s="99" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G26" s="99"/>
       <c r="H26" s="99" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="I26" s="99" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="J26" s="99" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="K26" s="99" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="L26" s="99"/>
       <c r="M26" s="99" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="N26" s="99" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="O26" s="99" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="P26" s="99" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="Q26" s="99" t="s">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="R26" s="99" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
         <f xml:space="preserve"> MID($N$26,3,1)</f>
-        <v>˪</v>
+        <v>ㄨ</v>
       </c>
       <c r="V26" s="69"/>
     </row>
@@ -5091,7 +5115,7 @@
       <c r="S27" s="81"/>
       <c r="U27" s="82" t="str">
         <f xml:space="preserve"> MID($N$26,4,1)</f>
-        <v/>
+        <v>˫</v>
       </c>
       <c r="V27" s="83"/>
     </row>
@@ -5099,50 +5123,50 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="97" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="E28" s="97" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="F28" s="97" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="G28" s="97" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="H28" s="97"/>
       <c r="I28" s="97" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="J28" s="97" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="K28" s="97" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="L28" s="97" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="M28" s="97" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="N28" s="97" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="O28" s="97" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="P28" s="97" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="Q28" s="97"/>
       <c r="R28" s="97" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="82" t="str">
         <f t="shared" ref="U28:U32" si="0" xml:space="preserve"> MID($N$26,4,1)</f>
-        <v/>
+        <v>˫</v>
       </c>
       <c r="V28" s="69"/>
     </row>
@@ -5153,19 +5177,19 @@
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="98" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E29" s="98" t="s">
         <v>195</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G29" s="98" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H29" s="98" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I29" s="98" t="s">
         <v>210</v>
@@ -5177,16 +5201,16 @@
         <v>213</v>
       </c>
       <c r="L29" s="98" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M29" s="98" t="s">
         <v>190</v>
       </c>
       <c r="N29" s="98" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O29" s="98" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P29" s="98" t="s">
         <v>231</v>
@@ -5194,13 +5218,13 @@
       <c r="Q29" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="R29" s="94" t="s">
-        <v>258</v>
+      <c r="R29" s="98" t="s">
+        <v>254</v>
       </c>
       <c r="S29" s="54"/>
       <c r="U29" s="82" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>˫</v>
       </c>
       <c r="V29" s="69"/>
     </row>
@@ -5208,50 +5232,50 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="99" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="E30" s="99" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="F30" s="99" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="G30" s="99" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="H30" s="99"/>
       <c r="I30" s="99" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="J30" s="99" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="K30" s="99" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="L30" s="99" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="M30" s="99" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="N30" s="99" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="O30" s="99" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="P30" s="99" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="Q30" s="99"/>
       <c r="R30" s="99" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="82" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>˫</v>
       </c>
       <c r="V30" s="69"/>
     </row>
@@ -5276,7 +5300,7 @@
       <c r="S31" s="81"/>
       <c r="U31" s="82" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>˫</v>
       </c>
       <c r="V31" s="83"/>
     </row>
@@ -5284,29 +5308,29 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="97" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="E32" s="97" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="F32" s="97" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="G32" s="97"/>
       <c r="H32" s="97" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="I32" s="97" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="J32" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="K32" s="97" t="s">
-        <v>352</v>
+        <v>385</v>
+      </c>
+      <c r="K32" s="106" t="s">
+        <v>259</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="M32" s="97"/>
       <c r="N32" s="97"/>
@@ -5317,7 +5341,7 @@
       <c r="S32" s="53"/>
       <c r="U32" s="82" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>˫</v>
       </c>
       <c r="V32" s="69"/>
     </row>
@@ -5345,11 +5369,11 @@
       <c r="I33" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="K33" s="98" t="s">
-        <v>259</v>
+      <c r="J33" s="94" t="s">
+        <v>383</v>
+      </c>
+      <c r="K33" s="105" t="s">
+        <v>384</v>
       </c>
       <c r="L33" s="98" t="s">
         <v>211</v>
@@ -5371,29 +5395,29 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="99" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="E34" s="99" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="F34" s="99" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="G34" s="99"/>
       <c r="H34" s="99" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="I34" s="99" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="J34" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="K34" s="99" t="s">
-        <v>353</v>
+        <v>386</v>
+      </c>
+      <c r="K34" s="107" t="s">
+        <v>335</v>
       </c>
       <c r="L34" s="99" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="M34" s="99"/>
       <c r="N34" s="99"/>
@@ -8518,7 +8542,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="111" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -8536,7 +8560,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="111" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -8561,7 +8585,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="109"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -8581,7 +8605,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="109"/>
+      <c r="I6" s="112"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -8603,7 +8627,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="109"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -8619,7 +8643,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="109"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -8641,7 +8665,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="109"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -8657,7 +8681,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="109"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -8679,7 +8703,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="109"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -8695,7 +8719,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="109"/>
+      <c r="I9" s="112"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -8717,7 +8741,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -8733,7 +8757,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="110"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -8756,7 +8780,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="111" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -8774,7 +8798,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="108" t="s">
+      <c r="I11" s="111" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -8798,7 +8822,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="109"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -8818,7 +8842,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="109"/>
+      <c r="I12" s="112"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -8838,7 +8862,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="109"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -8852,7 +8876,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="109"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -8872,7 +8896,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="109"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -8886,7 +8910,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="109"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -8906,7 +8930,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="109"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -8920,7 +8944,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="109"/>
+      <c r="I15" s="112"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -8940,7 +8964,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -8954,7 +8978,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="110"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】金剛般若波羅蜜經012。尊重正教分第十二.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經012。尊重正教分第十二.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE119053-480D-49A7-9D28-DCD215BC4051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF52FD0D-192A-47D6-A17E-6B3C78197369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -4096,7 +4096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
